--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.98327633333333</v>
+        <v>16.83279933333333</v>
       </c>
       <c r="H2">
-        <v>35.949829</v>
+        <v>50.498398</v>
       </c>
       <c r="I2">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="J2">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>45.27807864564367</v>
+        <v>43.73441252362245</v>
       </c>
       <c r="R2">
-        <v>407.502707810793</v>
+        <v>393.609712712602</v>
       </c>
       <c r="S2">
-        <v>0.01422746735422646</v>
+        <v>0.01519189064546814</v>
       </c>
       <c r="T2">
-        <v>0.01422746735422646</v>
+        <v>0.01519189064546814</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.98327633333333</v>
+        <v>16.83279933333333</v>
       </c>
       <c r="H3">
-        <v>35.949829</v>
+        <v>50.498398</v>
       </c>
       <c r="I3">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="J3">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
-        <v>51.92836960712112</v>
+        <v>72.94330874039778</v>
       </c>
       <c r="R3">
-        <v>467.3553264640901</v>
+        <v>656.48977866358</v>
       </c>
       <c r="S3">
-        <v>0.01631714961064507</v>
+        <v>0.0253380966099452</v>
       </c>
       <c r="T3">
-        <v>0.01631714961064507</v>
+        <v>0.0253380966099452</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.98327633333333</v>
+        <v>16.83279933333333</v>
       </c>
       <c r="H4">
-        <v>35.949829</v>
+        <v>50.498398</v>
       </c>
       <c r="I4">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="J4">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>5.768813137673778</v>
+        <v>7.898022389330444</v>
       </c>
       <c r="R4">
-        <v>51.919318239064</v>
+        <v>71.08220150397401</v>
       </c>
       <c r="S4">
-        <v>0.001812700605766167</v>
+        <v>0.002743512157373981</v>
       </c>
       <c r="T4">
-        <v>0.001812700605766167</v>
+        <v>0.002743512157373981</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.98327633333333</v>
+        <v>16.83279933333333</v>
       </c>
       <c r="H5">
-        <v>35.949829</v>
+        <v>50.498398</v>
       </c>
       <c r="I5">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="J5">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>3.486957658280445</v>
+        <v>1.604996194567111</v>
       </c>
       <c r="R5">
-        <v>31.382618924524</v>
+        <v>14.444965751104</v>
       </c>
       <c r="S5">
-        <v>0.001095686427796957</v>
+        <v>0.0005575226753322912</v>
       </c>
       <c r="T5">
-        <v>0.001095686427796957</v>
+        <v>0.0005575226753322912</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>997.1180420000001</v>
       </c>
       <c r="I6">
-        <v>0.9278651602470024</v>
+        <v>0.8654671168650652</v>
       </c>
       <c r="J6">
-        <v>0.9278651602470025</v>
+        <v>0.8654671168650654</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>1255.849899165479</v>
+        <v>863.5595090278842</v>
       </c>
       <c r="R6">
-        <v>11302.64909248932</v>
+        <v>7772.035581250959</v>
       </c>
       <c r="S6">
-        <v>0.3946184108654651</v>
+        <v>0.2999720556419889</v>
       </c>
       <c r="T6">
-        <v>0.3946184108654652</v>
+        <v>0.299972055641989</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>997.1180420000001</v>
       </c>
       <c r="I7">
-        <v>0.9278651602470024</v>
+        <v>0.8654671168650652</v>
       </c>
       <c r="J7">
-        <v>0.9278651602470025</v>
+        <v>0.8654671168650654</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
         <v>1440.304882309869</v>
@@ -883,10 +883,10 @@
         <v>12962.74394078882</v>
       </c>
       <c r="S7">
-        <v>0.4525786275864476</v>
+        <v>0.5003143521447035</v>
       </c>
       <c r="T7">
-        <v>0.4525786275864476</v>
+        <v>0.5003143521447037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>997.1180420000001</v>
       </c>
       <c r="I8">
-        <v>0.9278651602470024</v>
+        <v>0.8654671168650652</v>
       </c>
       <c r="J8">
-        <v>0.9278651602470025</v>
+        <v>0.8654671168650654</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>160.0059811272302</v>
+        <v>155.9507020504162</v>
       </c>
       <c r="R8">
-        <v>1440.053830145072</v>
+        <v>1403.556318453746</v>
       </c>
       <c r="S8">
-        <v>0.05027774899162313</v>
+        <v>0.05417212384765037</v>
       </c>
       <c r="T8">
-        <v>0.05027774899162314</v>
+        <v>0.05417212384765038</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>997.1180420000001</v>
       </c>
       <c r="I9">
-        <v>0.9278651602470024</v>
+        <v>0.8654671168650652</v>
       </c>
       <c r="J9">
-        <v>0.9278651602470025</v>
+        <v>0.8654671168650654</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>96.71557527468354</v>
+        <v>31.69151351977955</v>
       </c>
       <c r="R9">
-        <v>870.440177472152</v>
+        <v>285.223621678016</v>
       </c>
       <c r="S9">
-        <v>0.03039037280346663</v>
+        <v>0.01100858523072229</v>
       </c>
       <c r="T9">
-        <v>0.03039037280346663</v>
+        <v>0.01100858523072229</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.77014866666667</v>
+        <v>34.50825133333333</v>
       </c>
       <c r="H10">
-        <v>41.310446</v>
+        <v>103.524754</v>
       </c>
       <c r="I10">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594501</v>
       </c>
       <c r="J10">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594502</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>52.02966675793133</v>
+        <v>89.65817683647178</v>
       </c>
       <c r="R10">
-        <v>468.267000821382</v>
+        <v>806.923591528246</v>
       </c>
       <c r="S10">
-        <v>0.01634897962528654</v>
+        <v>0.03114428980236145</v>
       </c>
       <c r="T10">
-        <v>0.01634897962528654</v>
+        <v>0.03114428980236145</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.77014866666667</v>
+        <v>34.50825133333333</v>
       </c>
       <c r="H11">
-        <v>41.310446</v>
+        <v>103.524754</v>
       </c>
       <c r="I11">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594501</v>
       </c>
       <c r="J11">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594502</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>59.67160813262889</v>
+        <v>149.5381713553711</v>
       </c>
       <c r="R11">
-        <v>537.04447319366</v>
+        <v>1345.84354219834</v>
       </c>
       <c r="S11">
-        <v>0.01875026242446032</v>
+        <v>0.05194462244867275</v>
       </c>
       <c r="T11">
-        <v>0.01875026242446033</v>
+        <v>0.05194462244867275</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.77014866666667</v>
+        <v>34.50825133333333</v>
       </c>
       <c r="H12">
-        <v>41.310446</v>
+        <v>103.524754</v>
       </c>
       <c r="I12">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594501</v>
       </c>
       <c r="J12">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594502</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>6.629023008926222</v>
+        <v>16.19142106135578</v>
       </c>
       <c r="R12">
-        <v>59.661207080336</v>
+        <v>145.722789552202</v>
       </c>
       <c r="S12">
-        <v>0.002082999351364662</v>
+        <v>0.005624364978630622</v>
       </c>
       <c r="T12">
-        <v>0.002082999351364662</v>
+        <v>0.005624364978630623</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.77014866666667</v>
+        <v>34.50825133333333</v>
       </c>
       <c r="H13">
-        <v>41.310446</v>
+        <v>103.524754</v>
       </c>
       <c r="I13">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594501</v>
       </c>
       <c r="J13">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594502</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>4.006911299819555</v>
+        <v>3.290338759132444</v>
       </c>
       <c r="R13">
-        <v>36.062201698376</v>
+        <v>29.613048832192</v>
       </c>
       <c r="S13">
-        <v>0.001259068436971955</v>
+        <v>0.001142955026280187</v>
       </c>
       <c r="T13">
-        <v>0.001259068436971955</v>
+        <v>0.001142955026280187</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08615933333333332</v>
+        <v>0.324754</v>
       </c>
       <c r="H14">
-        <v>0.258478</v>
+        <v>0.974262</v>
       </c>
       <c r="I14">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700705</v>
       </c>
       <c r="J14">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700706</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N14">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q14">
-        <v>0.3255477852806666</v>
+        <v>0.8437649094153333</v>
       </c>
       <c r="R14">
-        <v>2.929930067526</v>
+        <v>7.593884184738</v>
       </c>
       <c r="S14">
-        <v>0.0001022949874611573</v>
+        <v>0.0002930960654243937</v>
       </c>
       <c r="T14">
-        <v>0.0001022949874611573</v>
+        <v>0.0002930960654243938</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08615933333333332</v>
+        <v>0.324754</v>
       </c>
       <c r="H15">
-        <v>0.258478</v>
+        <v>0.974262</v>
       </c>
       <c r="I15">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700705</v>
       </c>
       <c r="J15">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700706</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
         <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q15">
-        <v>0.3733631422644444</v>
+        <v>1.407290066113333</v>
       </c>
       <c r="R15">
-        <v>3.36026828038</v>
+        <v>12.66561059502</v>
       </c>
       <c r="S15">
-        <v>0.0001173197290329341</v>
+        <v>0.0004888460952642186</v>
       </c>
       <c r="T15">
-        <v>0.0001173197290329341</v>
+        <v>0.0004888460952642187</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08615933333333332</v>
+        <v>0.324754</v>
       </c>
       <c r="H16">
-        <v>0.258478</v>
+        <v>0.974262</v>
       </c>
       <c r="I16">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700705</v>
       </c>
       <c r="J16">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700706</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N16">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O16">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P16">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q16">
-        <v>0.0414775625831111</v>
+        <v>0.1523759840673333</v>
       </c>
       <c r="R16">
-        <v>0.373298063248</v>
+        <v>1.371383856606</v>
       </c>
       <c r="S16">
-        <v>1.303325329244896E-05</v>
+        <v>5.293038487017923E-05</v>
       </c>
       <c r="T16">
-        <v>1.303325329244896E-05</v>
+        <v>5.293038487017924E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.08615933333333332</v>
+        <v>0.324754</v>
       </c>
       <c r="H17">
-        <v>0.258478</v>
+        <v>0.974262</v>
       </c>
       <c r="I17">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700705</v>
       </c>
       <c r="J17">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700706</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N17">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q17">
-        <v>0.02507110232977777</v>
+        <v>0.03096507739733333</v>
       </c>
       <c r="R17">
-        <v>0.225639920968</v>
+        <v>0.278685696576</v>
       </c>
       <c r="S17">
-        <v>7.877946692989881E-06</v>
+        <v>1.075624531127876E-05</v>
       </c>
       <c r="T17">
-        <v>7.877946692989882E-06</v>
+        <v>1.075624531127876E-05</v>
       </c>
     </row>
   </sheetData>
